--- a/natmiOut/OldD4/LR-pairs_lrc2p/Btla-Cd79a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Btla-Cd79a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Cd79a</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.760707308139206</v>
+        <v>0.242421</v>
       </c>
       <c r="H2">
-        <v>0.760707308139206</v>
+        <v>0.727263</v>
       </c>
       <c r="I2">
-        <v>0.4651376989302928</v>
+        <v>0.05259686455245877</v>
       </c>
       <c r="J2">
-        <v>0.4651376989302928</v>
+        <v>0.05259686455245876</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.433048981731378</v>
+        <v>0.500487</v>
       </c>
       <c r="N2">
-        <v>0.433048981731378</v>
+        <v>1.501461</v>
       </c>
       <c r="O2">
-        <v>0.1812907719318905</v>
+        <v>0.168778286061727</v>
       </c>
       <c r="P2">
-        <v>0.1812907719318905</v>
+        <v>0.1791595355978303</v>
       </c>
       <c r="Q2">
-        <v>0.3294235251853008</v>
+        <v>0.121328559027</v>
       </c>
       <c r="R2">
-        <v>0.3294235251853008</v>
+        <v>1.091957031243</v>
       </c>
       <c r="S2">
-        <v>0.08432517249369605</v>
+        <v>0.008877208651384796</v>
       </c>
       <c r="T2">
-        <v>0.08432517249369605</v>
+        <v>0.009423229827120492</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.760707308139206</v>
+        <v>0.242421</v>
       </c>
       <c r="H3">
-        <v>0.760707308139206</v>
+        <v>0.727263</v>
       </c>
       <c r="I3">
-        <v>0.4651376989302928</v>
+        <v>0.05259686455245877</v>
       </c>
       <c r="J3">
-        <v>0.4651376989302928</v>
+        <v>0.05259686455245876</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.46214818416686</v>
+        <v>1.535638666666667</v>
       </c>
       <c r="N3">
-        <v>1.46214818416686</v>
+        <v>4.606916</v>
       </c>
       <c r="O3">
-        <v>0.6121108331132122</v>
+        <v>0.5178605281857785</v>
       </c>
       <c r="P3">
-        <v>0.6121108331132122</v>
+        <v>0.5497132000752692</v>
       </c>
       <c r="Q3">
-        <v>1.1122668092782</v>
+        <v>0.372271061212</v>
       </c>
       <c r="R3">
-        <v>1.1122668092782</v>
+        <v>3.350439550908</v>
       </c>
       <c r="S3">
-        <v>0.284715824404584</v>
+        <v>0.02723784005805215</v>
       </c>
       <c r="T3">
-        <v>0.284715824404584</v>
+        <v>0.0289131907270576</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.760707308139206</v>
+        <v>0.242421</v>
       </c>
       <c r="H4">
-        <v>0.760707308139206</v>
+        <v>0.727263</v>
       </c>
       <c r="I4">
-        <v>0.4651376989302928</v>
+        <v>0.05259686455245877</v>
       </c>
       <c r="J4">
-        <v>0.4651376989302928</v>
+        <v>0.05259686455245876</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.493501261035876</v>
+        <v>0.2105693333333334</v>
       </c>
       <c r="N4">
-        <v>0.493501261035876</v>
+        <v>0.631708</v>
       </c>
       <c r="O4">
-        <v>0.2065983949548973</v>
+        <v>0.07100989871297454</v>
       </c>
       <c r="P4">
-        <v>0.2065983949548973</v>
+        <v>0.0753775901694644</v>
       </c>
       <c r="Q4">
-        <v>0.3754100158459048</v>
+        <v>0.05104642835600001</v>
       </c>
       <c r="R4">
-        <v>0.3754100158459048</v>
+        <v>0.459417855204</v>
       </c>
       <c r="S4">
-        <v>0.09609670203201273</v>
+        <v>0.003734898024490138</v>
       </c>
       <c r="T4">
-        <v>0.09609670203201273</v>
+        <v>0.003964624900434066</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.874738087683695</v>
+        <v>0.242421</v>
       </c>
       <c r="H5">
-        <v>0.874738087683695</v>
+        <v>0.727263</v>
       </c>
       <c r="I5">
-        <v>0.5348623010697072</v>
+        <v>0.05259686455245877</v>
       </c>
       <c r="J5">
-        <v>0.5348623010697072</v>
+        <v>0.05259686455245876</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.433048981731378</v>
+        <v>0.2031823333333333</v>
       </c>
       <c r="N5">
-        <v>0.433048981731378</v>
+        <v>0.6095469999999999</v>
       </c>
       <c r="O5">
-        <v>0.1812907719318905</v>
+        <v>0.06851879465005586</v>
       </c>
       <c r="P5">
-        <v>0.1812907719318905</v>
+        <v>0.07273326276543357</v>
       </c>
       <c r="Q5">
-        <v>0.378804438153077</v>
+        <v>0.049255664429</v>
       </c>
       <c r="R5">
-        <v>0.378804438153077</v>
+        <v>0.443300979861</v>
       </c>
       <c r="S5">
-        <v>0.09696559943819442</v>
+        <v>0.003603873761506724</v>
       </c>
       <c r="T5">
-        <v>0.09696559943819442</v>
+        <v>0.003825541570131901</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.874738087683695</v>
+        <v>0.242421</v>
       </c>
       <c r="H6">
-        <v>0.874738087683695</v>
+        <v>0.727263</v>
       </c>
       <c r="I6">
-        <v>0.5348623010697072</v>
+        <v>0.05259686455245877</v>
       </c>
       <c r="J6">
-        <v>0.5348623010697072</v>
+        <v>0.05259686455245876</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.46214818416686</v>
+        <v>0.5154744999999999</v>
       </c>
       <c r="N6">
-        <v>1.46214818416686</v>
+        <v>1.030949</v>
       </c>
       <c r="O6">
-        <v>0.6121108331132122</v>
+        <v>0.1738324923894641</v>
       </c>
       <c r="P6">
-        <v>0.6121108331132122</v>
+        <v>0.1230164113920025</v>
       </c>
       <c r="Q6">
-        <v>1.278996706528306</v>
+        <v>0.1249618437645</v>
       </c>
       <c r="R6">
-        <v>1.278996706528306</v>
+        <v>0.7497710625869999</v>
       </c>
       <c r="S6">
-        <v>0.3273950087086283</v>
+        <v>0.009143044057024961</v>
       </c>
       <c r="T6">
-        <v>0.3273950087086283</v>
+        <v>0.006470277527714702</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.07261366666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.217841</v>
+      </c>
+      <c r="I7">
+        <v>0.01575462187815435</v>
+      </c>
+      <c r="J7">
+        <v>0.01575462187815435</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.500487</v>
+      </c>
+      <c r="N7">
+        <v>1.501461</v>
+      </c>
+      <c r="O7">
+        <v>0.168778286061727</v>
+      </c>
+      <c r="P7">
+        <v>0.1791595355978303</v>
+      </c>
+      <c r="Q7">
+        <v>0.036342196189</v>
+      </c>
+      <c r="R7">
+        <v>0.327079765701</v>
+      </c>
+      <c r="S7">
+        <v>0.002659038078145479</v>
+      </c>
+      <c r="T7">
+        <v>0.002822590739209551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.07261366666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.217841</v>
+      </c>
+      <c r="I8">
+        <v>0.01575462187815435</v>
+      </c>
+      <c r="J8">
+        <v>0.01575462187815435</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.535638666666667</v>
+      </c>
+      <c r="N8">
+        <v>4.606916</v>
+      </c>
+      <c r="O8">
+        <v>0.5178605281857785</v>
+      </c>
+      <c r="P8">
+        <v>0.5497132000752692</v>
+      </c>
+      <c r="Q8">
+        <v>0.1115083542617778</v>
+      </c>
+      <c r="R8">
+        <v>1.003575188356</v>
+      </c>
+      <c r="S8">
+        <v>0.008158696807188236</v>
+      </c>
+      <c r="T8">
+        <v>0.008660523608616079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.07261366666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.217841</v>
+      </c>
+      <c r="I9">
+        <v>0.01575462187815435</v>
+      </c>
+      <c r="J9">
+        <v>0.01575462187815435</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.2105693333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.631708</v>
+      </c>
+      <c r="O9">
+        <v>0.07100989871297454</v>
+      </c>
+      <c r="P9">
+        <v>0.0753775901694644</v>
+      </c>
+      <c r="Q9">
+        <v>0.01529021138088889</v>
+      </c>
+      <c r="R9">
+        <v>0.137611902428</v>
+      </c>
+      <c r="S9">
+        <v>0.001118734103828953</v>
+      </c>
+      <c r="T9">
+        <v>0.001187545431206396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.07261366666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.217841</v>
+      </c>
+      <c r="I10">
+        <v>0.01575462187815435</v>
+      </c>
+      <c r="J10">
+        <v>0.01575462187815435</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.2031823333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.6095469999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.06851879465005586</v>
+      </c>
+      <c r="P10">
+        <v>0.07273326276543357</v>
+      </c>
+      <c r="Q10">
+        <v>0.01475381422522222</v>
+      </c>
+      <c r="R10">
+        <v>0.132784328027</v>
+      </c>
+      <c r="S10">
+        <v>0.001079487701258536</v>
+      </c>
+      <c r="T10">
+        <v>0.001145885052833849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.874738087683695</v>
-      </c>
-      <c r="H7">
-        <v>0.874738087683695</v>
-      </c>
-      <c r="I7">
-        <v>0.5348623010697072</v>
-      </c>
-      <c r="J7">
-        <v>0.5348623010697072</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.493501261035876</v>
-      </c>
-      <c r="N7">
-        <v>0.493501261035876</v>
-      </c>
-      <c r="O7">
-        <v>0.2065983949548973</v>
-      </c>
-      <c r="P7">
-        <v>0.2065983949548973</v>
-      </c>
-      <c r="Q7">
-        <v>0.4316843493480141</v>
-      </c>
-      <c r="R7">
-        <v>0.4316843493480141</v>
-      </c>
-      <c r="S7">
-        <v>0.1105016929228846</v>
-      </c>
-      <c r="T7">
-        <v>0.1105016929228846</v>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.07261366666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.217841</v>
+      </c>
+      <c r="I11">
+        <v>0.01575462187815435</v>
+      </c>
+      <c r="J11">
+        <v>0.01575462187815435</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.5154744999999999</v>
+      </c>
+      <c r="N11">
+        <v>1.030949</v>
+      </c>
+      <c r="O11">
+        <v>0.1738324923894641</v>
+      </c>
+      <c r="P11">
+        <v>0.1230164113920025</v>
+      </c>
+      <c r="Q11">
+        <v>0.03743049351816666</v>
+      </c>
+      <c r="R11">
+        <v>0.224582961109</v>
+      </c>
+      <c r="S11">
+        <v>0.002738665187733151</v>
+      </c>
+      <c r="T11">
+        <v>0.00193807704628848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.127632</v>
+      </c>
+      <c r="H12">
+        <v>9.382896000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.6785865773754572</v>
+      </c>
+      <c r="J12">
+        <v>0.6785865773754572</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.500487</v>
+      </c>
+      <c r="N12">
+        <v>1.501461</v>
+      </c>
+      <c r="O12">
+        <v>0.168778286061727</v>
+      </c>
+      <c r="P12">
+        <v>0.1791595355978303</v>
+      </c>
+      <c r="Q12">
+        <v>1.565339156784</v>
+      </c>
+      <c r="R12">
+        <v>14.088052411056</v>
+      </c>
+      <c r="S12">
+        <v>0.1145306794739232</v>
+      </c>
+      <c r="T12">
+        <v>0.121575256065508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.127632</v>
+      </c>
+      <c r="H13">
+        <v>9.382896000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.6785865773754572</v>
+      </c>
+      <c r="J13">
+        <v>0.6785865773754572</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.535638666666667</v>
+      </c>
+      <c r="N13">
+        <v>4.606916</v>
+      </c>
+      <c r="O13">
+        <v>0.5178605281857785</v>
+      </c>
+      <c r="P13">
+        <v>0.5497132000752692</v>
+      </c>
+      <c r="Q13">
+        <v>4.802912634304001</v>
+      </c>
+      <c r="R13">
+        <v>43.226213708736</v>
+      </c>
+      <c r="S13">
+        <v>0.351413203379434</v>
+      </c>
+      <c r="T13">
+        <v>0.3730279989771869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.127632</v>
+      </c>
+      <c r="H14">
+        <v>9.382896000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.6785865773754572</v>
+      </c>
+      <c r="J14">
+        <v>0.6785865773754572</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.2105693333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.631708</v>
+      </c>
+      <c r="O14">
+        <v>0.07100989871297454</v>
+      </c>
+      <c r="P14">
+        <v>0.0753775901694644</v>
+      </c>
+      <c r="Q14">
+        <v>0.6585833851520001</v>
+      </c>
+      <c r="R14">
+        <v>5.927250466368001</v>
+      </c>
+      <c r="S14">
+        <v>0.04818636412741528</v>
+      </c>
+      <c r="T14">
+        <v>0.05115022092390675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.127632</v>
+      </c>
+      <c r="H15">
+        <v>9.382896000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.6785865773754572</v>
+      </c>
+      <c r="J15">
+        <v>0.6785865773754572</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.2031823333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.6095469999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.06851879465005586</v>
+      </c>
+      <c r="P15">
+        <v>0.07273326276543357</v>
+      </c>
+      <c r="Q15">
+        <v>0.6354795675680001</v>
+      </c>
+      <c r="R15">
+        <v>5.719316108112</v>
+      </c>
+      <c r="S15">
+        <v>0.0464959343474732</v>
+      </c>
+      <c r="T15">
+        <v>0.04935581584134535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.127632</v>
+      </c>
+      <c r="H16">
+        <v>9.382896000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.6785865773754572</v>
+      </c>
+      <c r="J16">
+        <v>0.6785865773754572</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5154744999999999</v>
+      </c>
+      <c r="N16">
+        <v>1.030949</v>
+      </c>
+      <c r="O16">
+        <v>0.1738324923894641</v>
+      </c>
+      <c r="P16">
+        <v>0.1230164113920025</v>
+      </c>
+      <c r="Q16">
+        <v>1.612214541384</v>
+      </c>
+      <c r="R16">
+        <v>9.673287248304</v>
+      </c>
+      <c r="S16">
+        <v>0.1179603960472116</v>
+      </c>
+      <c r="T16">
+        <v>0.0834772855675102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.166372333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.499117</v>
+      </c>
+      <c r="I17">
+        <v>0.2530619361939296</v>
+      </c>
+      <c r="J17">
+        <v>0.2530619361939296</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.500487</v>
+      </c>
+      <c r="N17">
+        <v>1.501461</v>
+      </c>
+      <c r="O17">
+        <v>0.168778286061727</v>
+      </c>
+      <c r="P17">
+        <v>0.1791595355978303</v>
+      </c>
+      <c r="Q17">
+        <v>0.583754189993</v>
+      </c>
+      <c r="R17">
+        <v>5.253787709937</v>
+      </c>
+      <c r="S17">
+        <v>0.04271135985827357</v>
+      </c>
+      <c r="T17">
+        <v>0.04533845896599219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.166372333333333</v>
+      </c>
+      <c r="H18">
+        <v>3.499117</v>
+      </c>
+      <c r="I18">
+        <v>0.2530619361939296</v>
+      </c>
+      <c r="J18">
+        <v>0.2530619361939296</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.535638666666667</v>
+      </c>
+      <c r="N18">
+        <v>4.606916</v>
+      </c>
+      <c r="O18">
+        <v>0.5178605281857785</v>
+      </c>
+      <c r="P18">
+        <v>0.5497132000752692</v>
+      </c>
+      <c r="Q18">
+        <v>1.791126454796889</v>
+      </c>
+      <c r="R18">
+        <v>16.120138093172</v>
+      </c>
+      <c r="S18">
+        <v>0.1310507879411042</v>
+      </c>
+      <c r="T18">
+        <v>0.1391114867624087</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.166372333333333</v>
+      </c>
+      <c r="H19">
+        <v>3.499117</v>
+      </c>
+      <c r="I19">
+        <v>0.2530619361939296</v>
+      </c>
+      <c r="J19">
+        <v>0.2530619361939296</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.2105693333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.631708</v>
+      </c>
+      <c r="O19">
+        <v>0.07100989871297454</v>
+      </c>
+      <c r="P19">
+        <v>0.0753775901694644</v>
+      </c>
+      <c r="Q19">
+        <v>0.2456022446484445</v>
+      </c>
+      <c r="R19">
+        <v>2.210420201836</v>
+      </c>
+      <c r="S19">
+        <v>0.01796990245724017</v>
+      </c>
+      <c r="T19">
+        <v>0.01907519891391718</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.166372333333333</v>
+      </c>
+      <c r="H20">
+        <v>3.499117</v>
+      </c>
+      <c r="I20">
+        <v>0.2530619361939296</v>
+      </c>
+      <c r="J20">
+        <v>0.2530619361939296</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.2031823333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.6095469999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.06851879465005586</v>
+      </c>
+      <c r="P20">
+        <v>0.07273326276543357</v>
+      </c>
+      <c r="Q20">
+        <v>0.2369862522221111</v>
+      </c>
+      <c r="R20">
+        <v>2.132876269999</v>
+      </c>
+      <c r="S20">
+        <v>0.0173394988398174</v>
+      </c>
+      <c r="T20">
+        <v>0.01840602030112247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.166372333333333</v>
+      </c>
+      <c r="H21">
+        <v>3.499117</v>
+      </c>
+      <c r="I21">
+        <v>0.2530619361939296</v>
+      </c>
+      <c r="J21">
+        <v>0.2530619361939296</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5154744999999999</v>
+      </c>
+      <c r="N21">
+        <v>1.030949</v>
+      </c>
+      <c r="O21">
+        <v>0.1738324923894641</v>
+      </c>
+      <c r="P21">
+        <v>0.1230164113920025</v>
+      </c>
+      <c r="Q21">
+        <v>0.6012351953388333</v>
+      </c>
+      <c r="R21">
+        <v>3.607411172033</v>
+      </c>
+      <c r="S21">
+        <v>0.04399038709749432</v>
+      </c>
+      <c r="T21">
+        <v>0.03113077125048914</v>
       </c>
     </row>
   </sheetData>
